--- a/data/trans_bre/P2A_enfcro_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 20,35</t>
+          <t>8,81; 20,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 16,99</t>
+          <t>3,37; 16,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 11,71</t>
+          <t>-2,66; 10,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 2,13</t>
+          <t>-8,04; 2,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,29; 97,04</t>
+          <t>34,09; 99,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,03; 56,27</t>
+          <t>9,72; 54,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 42,32</t>
+          <t>-7,66; 39,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 2,34</t>
+          <t>-8,4; 2,63</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 19,07</t>
+          <t>8,22; 19,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,69</t>
+          <t>2,72; 13,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 16,57</t>
+          <t>5,64; 16,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 0,55</t>
+          <t>-13,99; 0,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,15; 71,04</t>
+          <t>25,81; 72,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 35,59</t>
+          <t>6,39; 35,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,44; 60,98</t>
+          <t>17,28; 63,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 0,57</t>
+          <t>-14,51; 0,49</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 22,41</t>
+          <t>11,72; 22,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,13; 20,99</t>
+          <t>10,08; 20,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 19,12</t>
+          <t>8,95; 19,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,93</t>
+          <t>-3,75; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,5; 69,53</t>
+          <t>29,9; 69,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,41; 53,27</t>
+          <t>22,63; 52,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,97; 58,55</t>
+          <t>23,14; 59,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,98</t>
+          <t>-3,86; 1,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,8; 21,9</t>
+          <t>8,98; 21,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 26,17</t>
+          <t>15,05; 26,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 12,82</t>
+          <t>0,51; 12,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,76</t>
+          <t>-1,93; 1,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,6; 47,59</t>
+          <t>16,68; 45,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,66; 54,73</t>
+          <t>26,98; 55,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 25,38</t>
+          <t>0,66; 23,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,83</t>
+          <t>-1,98; 1,62</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,19</t>
+          <t>-3,28; 8,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 16,53</t>
+          <t>5,28; 15,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,15; 20,67</t>
+          <t>8,71; 20,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,16</t>
+          <t>-1,44; 2,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 11,34</t>
+          <t>-4,15; 11,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 22,56</t>
+          <t>6,58; 21,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,03; 33,06</t>
+          <t>12,56; 33,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,27</t>
+          <t>-1,47; 2,23</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,26; 10,54</t>
+          <t>3,42; 10,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,2</t>
+          <t>-0,84; 4,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,93</t>
+          <t>-0,01; 5,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,3</t>
+          <t>-0,84; 1,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 12,67</t>
+          <t>3,85; 13,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,55</t>
+          <t>-0,87; 4,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 6,75</t>
+          <t>-0,03; 6,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,33</t>
+          <t>-0,85; 1,23</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,43</t>
+          <t>12,44; 17,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 15,86</t>
+          <t>11,25; 16,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,58</t>
+          <t>8,81; 13,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,29</t>
+          <t>-2,24; 0,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,23; 38,34</t>
+          <t>25,89; 37,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,8; 29,4</t>
+          <t>19,69; 29,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,48; 27,46</t>
+          <t>16,8; 27,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,3</t>
+          <t>-2,3; 0,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_enfcro_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,66</t>
+          <t>14,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,56%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-7,82%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 20,6</t>
+          <t>8,76; 20,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 16,23</t>
+          <t>3,02; 15,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,66</t>
+          <t>-1,81; 11,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 2,4</t>
+          <t>-12,97; 8,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,09; 99,76</t>
+          <t>34,67; 103,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 54,17</t>
+          <t>8,28; 56,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 39,06</t>
+          <t>-5,23; 43,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 2,63</t>
+          <t>-40,64; 42,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,99</t>
+          <t>16,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>58,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-12,95%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 19,36</t>
+          <t>10,37; 21,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 13,45</t>
+          <t>3,66; 14,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 16,83</t>
+          <t>5,92; 16,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 0,47</t>
+          <t>-12,27; 4,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 72,15</t>
+          <t>34,27; 84,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 35,56</t>
+          <t>8,86; 40,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 63,12</t>
+          <t>19,22; 66,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 0,49</t>
+          <t>-46,32; 21,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,61</t>
+          <t>15,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>16,69%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 22,97</t>
+          <t>12,58; 23,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,08; 20,53</t>
+          <t>10,23; 20,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 19,33</t>
+          <t>9,58; 19,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,06</t>
+          <t>-3,82; 8,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,9; 69,68</t>
+          <t>33,8; 74,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,63; 52,45</t>
+          <t>22,72; 54,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,14; 59,7</t>
+          <t>25,78; 63,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 1,13</t>
+          <t>-14,72; 46,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>15,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,05</t>
+          <t>20,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>57,94%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 21,37</t>
+          <t>9,3; 21,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 26,81</t>
+          <t>14,73; 26,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 12,06</t>
+          <t>1,26; 12,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,54</t>
+          <t>2,41; 25,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 45,93</t>
+          <t>18,05; 49,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 55,36</t>
+          <t>27,67; 56,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 23,58</t>
+          <t>2,61; 26,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,62</t>
+          <t>7,44; 228,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,59</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,97</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>12,89%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,41</t>
+          <t>-0,08; 12,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,89</t>
+          <t>5,23; 16,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 20,85</t>
+          <t>8,51; 20,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,12</t>
+          <t>0,6; 10,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 11,58</t>
+          <t>0,1; 18,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 21,67</t>
+          <t>6,71; 22,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 33,59</t>
+          <t>12,75; 34,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,23</t>
+          <t>1,36; 26,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>25,8</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>54,72%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 10,94</t>
+          <t>5,95; 18,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,23</t>
+          <t>-2,14; 5,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,87</t>
+          <t>-3,68; 6,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,2</t>
+          <t>10,84; 43,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,24</t>
+          <t>7,36; 24,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,56</t>
+          <t>-2,3; 6,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,58</t>
+          <t>-4,12; 7,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,23</t>
+          <t>22,76; 103,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,99</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,52</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,27</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,36</t>
+          <t>-2,15; 8,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,04</t>
+          <t>-1,43; 5,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,62</t>
+          <t>-0,76; 6,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,26</t>
+          <t>-2,32; 8,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,89; 37,94</t>
+          <t>-2,42; 10,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,69; 29,67</t>
+          <t>-1,45; 5,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,8; 27,37</t>
+          <t>-0,79; 7,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,27</t>
+          <t>-3,36; 14,01</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16,02</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13,69</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11,61</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10,22</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>36,11%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25,41%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23,36%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>32,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13,65; 18,43</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11,34; 16,19</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 13,94</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 23,06</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>29,81; 42,9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>20,6; 30,89</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 29,03</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 87,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2A_enfcro_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 20,18</t>
+          <t>8,22; 19,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 15,88</t>
+          <t>3,38; 16,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 11,41</t>
+          <t>-1,6; 11,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 8,11</t>
+          <t>-12,24; 7,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,67; 103,22</t>
+          <t>33,11; 102,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 56,18</t>
+          <t>9,93; 58,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 43,98</t>
+          <t>-4,95; 42,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,64; 42,26</t>
+          <t>-38,62; 41,75</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,37; 21,19</t>
+          <t>10,45; 20,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 14,14</t>
+          <t>2,45; 14,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 16,96</t>
+          <t>5,94; 16,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 4,33</t>
+          <t>-11,91; 3,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,27; 84,92</t>
+          <t>34,79; 82,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 40,52</t>
+          <t>5,7; 38,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,22; 66,32</t>
+          <t>18,93; 65,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,32; 21,44</t>
+          <t>-46,93; 17,72</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 23,25</t>
+          <t>12,22; 23,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 20,71</t>
+          <t>10,66; 21,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 19,91</t>
+          <t>9,35; 19,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 8,61</t>
+          <t>-3,09; 8,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,8; 74,96</t>
+          <t>33,6; 75,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,72; 54,71</t>
+          <t>24,3; 56,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,78; 63,82</t>
+          <t>26,66; 65,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 46,89</t>
+          <t>-12,7; 46,58</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 21,52</t>
+          <t>9,58; 21,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,73; 26,56</t>
+          <t>15,18; 26,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 12,89</t>
+          <t>1,62; 13,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 25,43</t>
+          <t>3,36; 27,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,05; 49,06</t>
+          <t>18,92; 49,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,67; 56,84</t>
+          <t>28,23; 56,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 26,51</t>
+          <t>2,84; 27,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 228,73</t>
+          <t>11,6; 305,78</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 12,42</t>
+          <t>0,32; 12,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 16,07</t>
+          <t>5,4; 16,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 20,91</t>
+          <t>8,68; 21,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 10,66</t>
+          <t>0,29; 10,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 18,5</t>
+          <t>0,53; 19,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 22,42</t>
+          <t>6,88; 22,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 34,68</t>
+          <t>12,76; 35,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 26,11</t>
+          <t>0,71; 25,8</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,95; 18,34</t>
+          <t>6,05; 17,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 5,8</t>
+          <t>-2,19; 5,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 6,45</t>
+          <t>-3,21; 6,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,84; 43,54</t>
+          <t>10,08; 43,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 24,85</t>
+          <t>7,43; 24,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,43</t>
+          <t>-2,3; 5,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 7,62</t>
+          <t>-3,57; 7,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,76; 103,67</t>
+          <t>21,08; 98,82</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,92</t>
+          <t>-2,61; 9,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 5,47</t>
+          <t>-1,07; 5,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 6,33</t>
+          <t>-0,33; 7,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 8,46</t>
+          <t>-2,71; 8,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 10,86</t>
+          <t>-2,94; 11,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 5,93</t>
+          <t>-1,08; 5,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 7,0</t>
+          <t>-0,31; 7,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 14,01</t>
+          <t>-4,12; 15,01</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,65; 18,43</t>
+          <t>13,69; 18,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,34; 16,19</t>
+          <t>11,54; 16,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,94</t>
+          <t>9,3; 13,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 23,06</t>
+          <t>4,45; 22,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,81; 42,9</t>
+          <t>29,96; 42,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,6; 30,89</t>
+          <t>20,88; 30,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,98; 29,03</t>
+          <t>18,12; 28,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,69; 87,19</t>
+          <t>12,84; 78,75</t>
         </is>
       </c>
     </row>
